--- a/mapping/Invertebrate.xlsx
+++ b/mapping/Invertebrate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>白枝海绵属</t>
+          <t>樽海绵属</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>禾螟属</t>
+          <t>螟蛾属</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>巨腹足螺属</t>
+          <t>大鳞螺属</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>阴茎虫属</t>
+          <t>吻虫属</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>海羊齿属</t>
+          <t>海百合属</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>四盾蛛属</t>
+          <t>穹蛛属</t>
         </is>
       </c>
     </row>
@@ -945,1579 +945,1699 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>侧腕水母属</t>
+          <t>瓜水母属</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Palaemon</t>
+          <t>Acropora</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>长臂虾属</t>
+          <t>鹿角珊瑚属</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Zootermopsis</t>
+          <t>Hydra</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>白蚁属</t>
+          <t>水螅属</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ylistrum</t>
+          <t>Mizuhopecten</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>厚壳牡蛎属</t>
+          <t>水野扇贝属</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mizuhopecten</t>
+          <t>Uranotaenia</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>虾夷扇贝属</t>
+          <t>蓝带蚊属</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sitophilus</t>
+          <t>Cimex</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>象鼻虫属</t>
+          <t>臭虫属</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Drosophila</t>
+          <t>Topomyia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>果蝇属</t>
+          <t>瘤蚊属</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bradysia</t>
+          <t>Apostichopus</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>菇蚊属</t>
+          <t>刺参属</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Liolophura</t>
+          <t>Belonocnema</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>石鳖属</t>
+          <t>针痕蜂属</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cimex</t>
+          <t>Hydractinia</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>臭虫属</t>
+          <t>多孔螅属</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Euwallacea</t>
+          <t>Dendroctonus</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>真小蠹属</t>
+          <t>齿小蠹属</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cylas</t>
+          <t>Oscarella</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>甘薯小象甲属</t>
+          <t>颤海绵属</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Topomyia</t>
+          <t>Dysidea</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>瘤蚊属</t>
+          <t>山海绵属</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bactrocera</t>
+          <t>Drosophila</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>果实蝇属</t>
+          <t>果蝇属</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Belonocnema</t>
+          <t>Halichondria</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>球瘿蜂属</t>
+          <t>软海绵属</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Diaphorina</t>
+          <t>Magallana</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>木虱属</t>
+          <t>巨牡蛎属</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Xenia</t>
+          <t>Zootermopsis</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>笙珊瑚属</t>
+          <t>白蚁属</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Helobdella</t>
+          <t>Procambarus</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>舌蛭属</t>
+          <t>原螯虾属</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Achroia</t>
+          <t>Cherax</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>蜡螟属</t>
+          <t>螯虾属</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Acropora</t>
+          <t>Ylistrum</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>鹿角珊瑚属</t>
+          <t>海扇属</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Daphnia</t>
+          <t>Lytechinus</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>水蚤属</t>
+          <t>海胆属</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Tribolium</t>
+          <t>Ochlerotatus</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>拟谷盗属</t>
+          <t>骚扰蚊属</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Tigriopus</t>
+          <t>Littorina</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>虎猛水蚤属</t>
+          <t>滨螺属</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Hydractinia</t>
+          <t>Wyeomyia</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>水螅珊瑚属</t>
+          <t>温蚊属</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Halichondria</t>
+          <t>Palaemon</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>软海绵属</t>
+          <t>长臂虾属</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Procambarus</t>
+          <t>Homarus</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>原螯虾属</t>
+          <t>龙虾属</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cherax</t>
+          <t>Anoplophora</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>螯虾属</t>
+          <t>星天牛属</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Magallana</t>
+          <t>Melitaea</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>巨牡蛎属</t>
+          <t>珍蝶属</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Octopus</t>
+          <t>Pollicipes</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>章鱼属</t>
+          <t>茗荷属</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Dermacentor</t>
+          <t>Nematostella</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>革蜱属</t>
+          <t>星状海葵属</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Anopheles</t>
+          <t>Diaphorina</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>按蚊属</t>
+          <t>木虱属</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Scylla</t>
+          <t>Sitophilus</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>青蟹属</t>
+          <t>象鼻虫属</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lineus</t>
+          <t>Bradysia</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>纵沟纽虫属</t>
+          <t>菇蚊属</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Maniola</t>
+          <t>Liolophura</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>眼蝶属</t>
+          <t>石鳖属</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Rhopilema</t>
+          <t>Euwallacea</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>根口水母属</t>
+          <t>真小蠹属</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Artemia</t>
+          <t>Cylas</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>卤虫属</t>
+          <t>甘薯小象甲属</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Periplaneta</t>
+          <t>Bactrocera</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>大蠊属</t>
+          <t>果实蝇属</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Saccoglossus</t>
+          <t>Xenia</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>玉钩虫属</t>
+          <t>笙珊瑚属</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Copidosoma</t>
+          <t>Helobdella</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>赤眼蜂属</t>
+          <t>舌蛭属</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Coccinella</t>
+          <t>Achroia</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>飘虫属</t>
+          <t>蜡螟属</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Chrysoperla</t>
+          <t>Daphnia</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>草蛉属</t>
+          <t>水蚤属</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ischnura</t>
+          <t>Tribolium</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>扇蟌属</t>
+          <t>拟谷盗属</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Portunus</t>
+          <t>Tigriopus</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>梭子蟹属</t>
+          <t>虎猛水蚤属</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epargyreus</t>
+          <t>Octopus</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>弄蝶属</t>
+          <t>章鱼属</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Aphidius</t>
+          <t>Dermacentor</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>蚜茧蜂属</t>
+          <t>革蜱属</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Hydra</t>
+          <t>Anopheles</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>水螅属</t>
+          <t>按蚊属</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Biomphalaria</t>
+          <t>Scylla</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>双脐螺属</t>
+          <t>青蟹属</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Homarus</t>
+          <t>Lineus</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>龙虾属</t>
+          <t>纵沟纽虫属</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Spodoptera</t>
+          <t>Maniola</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>夜蛾属</t>
+          <t>眼蝶属</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lytechinus</t>
+          <t>Rhopilema</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>海胆属</t>
+          <t>根口水母属</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Helicoverpa</t>
+          <t>Artemia</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>棉铃虫属</t>
+          <t>卤虫属</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Littorina</t>
+          <t>Periplaneta</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>滨螺属</t>
+          <t>大蠊属</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Dreissena</t>
+          <t>Saccoglossus</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>斑马贻贝属</t>
+          <t>玉钩虫属</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Hetaerina</t>
+          <t>Copidosoma</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>色蟌属</t>
+          <t>赤眼蜂属</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Colias</t>
+          <t>Coccinella</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>豆粉蝶属</t>
+          <t>飘虫属</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Anastrepha</t>
+          <t>Chrysoperla</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>按实蝇属</t>
+          <t>草蛉属</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Centruroides</t>
+          <t>Ischnura</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>刺尾蝎属</t>
+          <t>扇蟌属</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Armigeres</t>
+          <t>Portunus</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>阿蚊属</t>
+          <t>梭子蟹属</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cloeon</t>
+          <t>Epargyreus</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>四节蜉属</t>
+          <t>弄蝶属</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Pocillopora</t>
+          <t>Aphidius</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>鹿角杯形珊瑚属</t>
+          <t>蚜茧蜂属</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Montipora</t>
+          <t>Biomphalaria</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>表孔珊瑚属</t>
+          <t>双脐螺属</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Dalotia</t>
+          <t>Spodoptera</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>土步甲属</t>
+          <t>夜蛾属</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Choristoneura</t>
+          <t>Helicoverpa</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>卷蛾属</t>
+          <t>棉铃虫属</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tetranychus</t>
+          <t>Dreissena</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>叶螨属</t>
+          <t>斑马贻贝属</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wasmannia</t>
+          <t>Hetaerina</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>大头蚁属</t>
+          <t>色蟌属</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Uranotaenia</t>
+          <t>Colias</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>蓝带蚊属</t>
+          <t>豆粉蝶属</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Uloborus</t>
+          <t>Anastrepha</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>涡蛛属</t>
+          <t>按实蝇属</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Polyergus</t>
+          <t>Centruroides</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>悍蚁属</t>
+          <t>刺尾蝎属</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Tubulanus</t>
+          <t>Armigeres</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>管纽虫属</t>
+          <t>阿蚊属</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Leguminivora</t>
+          <t>Cloeon</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>豆荚螟属</t>
+          <t>四节蜉属</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Paramacrobiotus</t>
+          <t>Pocillopora</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>副小斑熊虫属</t>
+          <t>鹿角杯形珊瑚属</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Aplysia</t>
+          <t>Montipora</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>海兔属</t>
+          <t>表孔珊瑚属</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Photinus</t>
+          <t>Dalotia</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>扁甲萤属</t>
+          <t>土步甲属</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Musca</t>
+          <t>Choristoneura</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>家蝇属</t>
+          <t>卷蛾属</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cotesia</t>
+          <t>Tetranychus</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>茧蜂属</t>
+          <t>叶螨属</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Rhipicephalus</t>
+          <t>Wasmannia</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>扇头蜱属</t>
+          <t>大头蚁属</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Pieris</t>
+          <t>Uloborus</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>粉蝶属</t>
+          <t>涡蛛属</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lepeophtheirus</t>
+          <t>Polyergus</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>鱼虱属</t>
+          <t>悍蚁属</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Macrosteles</t>
+          <t>Tubulanus</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>大叶蝉属</t>
+          <t>管纽虫属</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Antedon</t>
+          <t>Leguminivora</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>海羊齿属</t>
+          <t>豆荚螟属</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Corticium</t>
+          <t>Paramacrobiotus</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>丝膜菌属</t>
+          <t>副小斑熊虫属</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Nymphalis</t>
+          <t>Aplysia</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>蛱蝶属</t>
+          <t>海兔属</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Leptinotarsa</t>
+          <t>Photinus</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>马铃薯甲虫属</t>
+          <t>扁甲萤属</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Battus</t>
+          <t>Musca</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>绢粉蝶属</t>
+          <t>家蝇属</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Cotesia</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>蛱蝶属</t>
+          <t>茧蜂属</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Diorhabda</t>
+          <t>Rhipicephalus</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>柽柳叶甲属</t>
+          <t>扇头蜱属</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Calliphora</t>
+          <t>Pieris</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>丽蝇属</t>
+          <t>粉蝶属</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Porites</t>
+          <t>Lepeophtheirus</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>滨珊瑚属</t>
+          <t>鱼虱属</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Argiope</t>
+          <t>Macrosteles</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>园蛛属</t>
+          <t>大叶蝉属</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Bicyclus</t>
+          <t>Antedon</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>双环眼蝶属</t>
+          <t>海羊齿属</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Pararge</t>
+          <t>Corticium</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>眼蝶属</t>
+          <t>丝膜菌属</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Aethina</t>
+          <t>Nymphalis</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>小露尾甲属</t>
+          <t>蛱蝶属</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Onthophagus</t>
+          <t>Leptinotarsa</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>蜣螂属</t>
+          <t>马铃薯甲虫属</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Wyeomyia</t>
+          <t>Battus</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>温蚊属</t>
+          <t>珠凤蝶属</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Anabrus</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>雏蝗属</t>
+          <t>蛱蝶属</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Amyelois</t>
+          <t>Diorhabda</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>粉斑螟属</t>
+          <t>柽柳叶甲属</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Pecten</t>
+          <t>Calliphora</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>扇贝属</t>
+          <t>丽蝇属</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Aricia</t>
+          <t>Porites</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>珠灰蝶属</t>
+          <t>滨珊瑚属</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Melitaea</t>
+          <t>Argiope</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>网蛱蝶属</t>
+          <t>园蛛属</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Eupeodes</t>
+          <t>Bicyclus</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>优蚜蝇属</t>
+          <t>双环眼蝶属</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Pomacea</t>
+          <t>Pararge</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>福寿螺属</t>
+          <t>眼蝶属</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Galleria</t>
+          <t>Aethina</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>蜡螟属</t>
+          <t>小露尾甲属</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Vespa</t>
+          <t>Onthophagus</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>胡蜂属</t>
+          <t>蜣螂属</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Danaus</t>
+          <t>Anabrus</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>斑蝶属</t>
+          <t>雏蝗属</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Pollicipes</t>
+          <t>Amyelois</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>茗荷属</t>
+          <t>粉斑螟属</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Nematostella</t>
+          <t>Pecten</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>星状海葵属</t>
+          <t>扇贝属</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Diabrotica</t>
+          <t>Aricia</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>叶甲属</t>
+          <t>珠灰蝶属</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Leptopilina</t>
+          <t>Eupeodes</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>细蜂属</t>
+          <t>优蚜蝇属</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Dendroctonus</t>
+          <t>Pomacea</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>大小蠹属</t>
+          <t>福寿螺属</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Physella</t>
+          <t>Galleria</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>膀胱螺属</t>
+          <t>蜡螟属</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Zophobas</t>
+          <t>Vespa</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>粉甲属</t>
+          <t>胡蜂属</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Ixodes</t>
+          <t>Danaus</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>硬蜱属</t>
+          <t>斑蝶属</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sabethes</t>
+          <t>Diabrotica</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>煞蚊属</t>
+          <t>叶甲属</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Symsagittifera</t>
+          <t>Leptopilina</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>箭虫属</t>
+          <t>细蜂属</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Oscarella</t>
+          <t>Physella</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>偕老同穴属</t>
+          <t>膀胱螺属</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Dysidea</t>
+          <t>Zophobas</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>硬海绵属</t>
+          <t>粉甲属</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Brevipalpus</t>
+          <t>Ixodes</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>短须螨属</t>
+          <t>硬蜱属</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Diprion</t>
+          <t>Sabethes</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>松叶蜂属</t>
+          <t>煞蚊属</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Culicoides</t>
+          <t>Symsagittifera</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>蠓属</t>
+          <t>箭虫属</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Trichoplusia</t>
+          <t>Brevipalpus</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>粉纹夜蛾属</t>
+          <t>短须螨属</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ochlerotatus</t>
+          <t>Diprion</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>骚扰蚊属</t>
+          <t>松叶蜂属</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Myzus</t>
+          <t>Culicoides</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>瘤蚜属</t>
+          <t>蠓属</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Frankliniella</t>
+          <t>Trichoplusia</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>花蓟马属</t>
+          <t>粉纹夜蛾属</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Echinococcus</t>
+          <t>Leptidea</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>绦虫属</t>
+          <t>珍眼蝶属</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Strongylocentrotus</t>
+          <t>Nilaparvata</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>球海胆属</t>
+          <t>飞虱属</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Rhagoletis</t>
+          <t>Cydia</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>果蝇属</t>
+          <t>小卷蛾属</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Bacillus</t>
+          <t>Zeugodacus</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>竹节虫属</t>
+          <t>果实蝇属</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Bemisia</t>
+          <t>Ceratitis</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>粉虱属</t>
+          <t>实蝇属</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Asterias</t>
+          <t>Myzus</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>海星属</t>
+          <t>瘤蚜属</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Watersipora</t>
+          <t>Frankliniella</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>水域泡状虫属</t>
+          <t>花蓟马属</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Apostichopus</t>
+          <t>Echinococcus</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>刺参属</t>
+          <t>绦虫属</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>Strongylocentrotus</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>球海胆属</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Rhagoletis</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>果蝇属</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Bacillus</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>竹节虫属</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Bemisia</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>粉虱属</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Asterias</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>海星属</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Watersipora</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>水域泡状虫属</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
           <t>Brugia</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>布鲁线虫属</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Caenorhabditis</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>秀丽隐杆线虫属</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Bombus</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>熊蜂属</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Ctenocephalides</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>栉首蚤属</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Thrips</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>蓟马属</t>
         </is>
       </c>
     </row>

--- a/mapping/Invertebrate.xlsx
+++ b/mapping/Invertebrate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2548,94 +2548,106 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Bemisia</t>
+          <t>Caenorhabditis</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>粉虱属</t>
+          <t>秀丽隐杆线虫属</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Asterias</t>
+          <t>Oppia</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>海星属</t>
+          <t>奥甲螨属</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Watersipora</t>
+          <t>Bemisia</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>水域泡状虫属</t>
+          <t>粉虱属</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Brugia</t>
+          <t>Asterias</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>布鲁线虫属</t>
+          <t>海星属</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Caenorhabditis</t>
+          <t>Watersipora</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>秀丽隐杆线虫属</t>
+          <t>水域泡状虫属</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Bombus</t>
+          <t>Brugia</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>熊蜂属</t>
+          <t>布鲁线虫属</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Ctenocephalides</t>
+          <t>Bombus</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>栉首蚤属</t>
+          <t>熊蜂属</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>Ctenocephalides</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>栉首蚤属</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
           <t>Thrips</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>蓟马属</t>
         </is>

--- a/mapping/Invertebrate.xlsx
+++ b/mapping/Invertebrate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1420,1234 +1420,1366 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Daphnia</t>
+          <t>Lineus</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>水蚤属</t>
+          <t>纵沟纽虫属</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Tribolium</t>
+          <t>Bacillus</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>拟谷盗属</t>
+          <t>竹节虫属</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tigriopus</t>
+          <t>Argiope</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>虎猛水蚤属</t>
+          <t>园蛛属</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Octopus</t>
+          <t>Ixodes</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>章鱼属</t>
+          <t>硬蜱属</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Dermacentor</t>
+          <t>Aphidius</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>革蜱属</t>
+          <t>蚜茧蜂属</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Anopheles</t>
+          <t>Bombus</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>按蚊属</t>
+          <t>熊蜂属</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Scylla</t>
+          <t>Cydia</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>青蟹属</t>
+          <t>小卷蛾属</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lineus</t>
+          <t>Uloborus</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>纵沟纽虫属</t>
+          <t>涡蛛属</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Maniola</t>
+          <t>Portunus</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>眼蝶属</t>
+          <t>梭子蟹属</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rhopilema</t>
+          <t>Corticium</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>根口水母属</t>
+          <t>丝膜菌属</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Artemia</t>
+          <t>Daphnia</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>卤虫属</t>
+          <t>水蚤属</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Periplaneta</t>
+          <t>Biomphalaria</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>大蠊属</t>
+          <t>双脐螺属</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Saccoglossus</t>
+          <t>Pecten</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>玉钩虫属</t>
+          <t>扇贝属</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Copidosoma</t>
+          <t>Sabethes</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>赤眼蜂属</t>
+          <t>煞蚊属</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Coccinella</t>
+          <t>Strongylocentrotus</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>飘虫属</t>
+          <t>球海胆属</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Chrysoperla</t>
+          <t>Scylla</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>草蛉属</t>
+          <t>青蟹属</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ischnura</t>
+          <t>Tribolium</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>扇蟌属</t>
+          <t>拟谷盗属</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Portunus</t>
+          <t>Helicoverpa</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>梭子蟹属</t>
+          <t>棉铃虫属</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epargyreus</t>
+          <t>Leptinotarsa</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>弄蝶属</t>
+          <t>马铃薯甲虫属</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Aphidius</t>
+          <t>Artemia</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>蚜茧蜂属</t>
+          <t>卤虫属</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Biomphalaria</t>
+          <t>Galleria</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>双脐螺属</t>
+          <t>蜡螟属</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Spodoptera</t>
+          <t>Antedon</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>夜蛾属</t>
+          <t>海羊齿属</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Helicoverpa</t>
+          <t>Tubulanus</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>棉铃虫属</t>
+          <t>管纽虫属</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Dreissena</t>
+          <t>Rhopilema</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>斑马贻贝属</t>
+          <t>根口水母属</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Hetaerina</t>
+          <t>Dermacentor</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>色蟌属</t>
+          <t>革蜱属</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Colias</t>
+          <t>Pomacea</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>豆粉蝶属</t>
+          <t>福寿螺属</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Anastrepha</t>
+          <t>Zophobas</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>按实蝇属</t>
+          <t>粉甲属</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Centruroides</t>
+          <t>Brevipalpus</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>刺尾蝎属</t>
+          <t>短须螨属</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Armigeres</t>
+          <t>Wasmannia</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>阿蚊属</t>
+          <t>大头蚁属</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cloeon</t>
+          <t>Diorhabda</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>四节蜉属</t>
+          <t>柽柳叶甲属</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Pocillopora</t>
+          <t>Porites</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>鹿角杯形珊瑚属</t>
+          <t>滨珊瑚属</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Montipora</t>
+          <t>Physella</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>表孔珊瑚属</t>
+          <t>膀胱螺属</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Dalotia</t>
+          <t>Dreissena</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>土步甲属</t>
+          <t>斑马贻贝属</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Choristoneura</t>
+          <t>Anopheles</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>卷蛾属</t>
+          <t>按蚊属</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Tetranychus</t>
+          <t>Anastrepha</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>叶螨属</t>
+          <t>按实蝇属</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Wasmannia</t>
+          <t>Planococcus</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>大头蚁属</t>
+          <t>显球菌属</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Uloborus</t>
+          <t>Hermetia</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>涡蛛属</t>
+          <t>扁角水虻属</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Polyergus</t>
+          <t>Stomoxys</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>悍蚁属</t>
+          <t>厩螫蝇属</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Tubulanus</t>
+          <t>Metopolophium</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>管纽虫属</t>
+          <t>无网蚜属</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Leguminivora</t>
+          <t>Episyrphus</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>豆荚螟属</t>
+          <t>食蚜蝇属</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Paramacrobiotus</t>
+          <t>Anthonomus</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>副小斑熊虫属</t>
+          <t>花象属</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Aplysia</t>
+          <t>Acyrthosiphon</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>海兔属</t>
+          <t>豌豆蚜属</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Photinus</t>
+          <t>Amphibalanus</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>扁甲萤属</t>
+          <t>藤壶属</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Musca</t>
+          <t>Rhopalosiphum</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>家蝇属</t>
+          <t>缢管蚜属</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cotesia</t>
+          <t>Microplitis</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>茧蜂属</t>
+          <t>绒茧蜂属</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Rhipicephalus</t>
+          <t>Phymastichus</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>扇头蜱属</t>
+          <t>潜蝇茧蜂属</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Pieris</t>
+          <t>Tigriopus</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>粉蝶属</t>
+          <t>虎猛水蚤属</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lepeophtheirus</t>
+          <t>Octopus</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>鱼虱属</t>
+          <t>章鱼属</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Macrosteles</t>
+          <t>Maniola</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>大叶蝉属</t>
+          <t>眼蝶属</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Antedon</t>
+          <t>Periplaneta</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>海羊齿属</t>
+          <t>大蠊属</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Corticium</t>
+          <t>Saccoglossus</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>丝膜菌属</t>
+          <t>玉钩虫属</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Nymphalis</t>
+          <t>Copidosoma</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>蛱蝶属</t>
+          <t>赤眼蜂属</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Leptinotarsa</t>
+          <t>Coccinella</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>马铃薯甲虫属</t>
+          <t>飘虫属</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Battus</t>
+          <t>Chrysoperla</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>珠凤蝶属</t>
+          <t>草蛉属</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Ischnura</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>蛱蝶属</t>
+          <t>扇蟌属</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Diorhabda</t>
+          <t>Epargyreus</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>柽柳叶甲属</t>
+          <t>弄蝶属</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Calliphora</t>
+          <t>Spodoptera</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>丽蝇属</t>
+          <t>夜蛾属</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Porites</t>
+          <t>Hetaerina</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>滨珊瑚属</t>
+          <t>色蟌属</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Argiope</t>
+          <t>Colias</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>园蛛属</t>
+          <t>豆粉蝶属</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Bicyclus</t>
+          <t>Centruroides</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>双环眼蝶属</t>
+          <t>刺尾蝎属</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Pararge</t>
+          <t>Armigeres</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>眼蝶属</t>
+          <t>阿蚊属</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Aethina</t>
+          <t>Cloeon</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>小露尾甲属</t>
+          <t>四节蜉属</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Onthophagus</t>
+          <t>Pocillopora</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>蜣螂属</t>
+          <t>鹿角杯形珊瑚属</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Anabrus</t>
+          <t>Montipora</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>雏蝗属</t>
+          <t>表孔珊瑚属</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Amyelois</t>
+          <t>Dalotia</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>粉斑螟属</t>
+          <t>土步甲属</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Pecten</t>
+          <t>Choristoneura</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>扇贝属</t>
+          <t>卷蛾属</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Aricia</t>
+          <t>Tetranychus</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>珠灰蝶属</t>
+          <t>叶螨属</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Eupeodes</t>
+          <t>Polyergus</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>优蚜蝇属</t>
+          <t>悍蚁属</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Pomacea</t>
+          <t>Leguminivora</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>福寿螺属</t>
+          <t>豆荚螟属</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Galleria</t>
+          <t>Paramacrobiotus</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>蜡螟属</t>
+          <t>副小斑熊虫属</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Vespa</t>
+          <t>Aplysia</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>胡蜂属</t>
+          <t>海兔属</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Danaus</t>
+          <t>Photinus</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>斑蝶属</t>
+          <t>扁甲萤属</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Diabrotica</t>
+          <t>Musca</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>叶甲属</t>
+          <t>家蝇属</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Leptopilina</t>
+          <t>Cotesia</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>细蜂属</t>
+          <t>茧蜂属</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Physella</t>
+          <t>Rhipicephalus</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>膀胱螺属</t>
+          <t>扇头蜱属</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Zophobas</t>
+          <t>Pieris</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>粉甲属</t>
+          <t>粉蝶属</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ixodes</t>
+          <t>Lepeophtheirus</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>硬蜱属</t>
+          <t>鱼虱属</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sabethes</t>
+          <t>Macrosteles</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>煞蚊属</t>
+          <t>大叶蝉属</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Symsagittifera</t>
+          <t>Nymphalis</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>箭虫属</t>
+          <t>蛱蝶属</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Brevipalpus</t>
+          <t>Battus</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>短须螨属</t>
+          <t>珠凤蝶属</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Diprion</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>松叶蜂属</t>
+          <t>蛱蝶属</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Culicoides</t>
+          <t>Calliphora</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>蠓属</t>
+          <t>丽蝇属</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Trichoplusia</t>
+          <t>Bicyclus</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>粉纹夜蛾属</t>
+          <t>双环眼蝶属</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Leptidea</t>
+          <t>Pararge</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>珍眼蝶属</t>
+          <t>眼蝶属</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Nilaparvata</t>
+          <t>Aethina</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>飞虱属</t>
+          <t>小露尾甲属</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Cydia</t>
+          <t>Onthophagus</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>小卷蛾属</t>
+          <t>蜣螂属</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Zeugodacus</t>
+          <t>Anabrus</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>果实蝇属</t>
+          <t>雏蝗属</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ceratitis</t>
+          <t>Amyelois</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>实蝇属</t>
+          <t>粉斑螟属</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Myzus</t>
+          <t>Aricia</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>瘤蚜属</t>
+          <t>珠灰蝶属</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Frankliniella</t>
+          <t>Eupeodes</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>花蓟马属</t>
+          <t>优蚜蝇属</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Echinococcus</t>
+          <t>Vespa</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>绦虫属</t>
+          <t>胡蜂属</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Strongylocentrotus</t>
+          <t>Danaus</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>球海胆属</t>
+          <t>斑蝶属</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Rhagoletis</t>
+          <t>Diabrotica</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>果蝇属</t>
+          <t>叶甲属</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Bacillus</t>
+          <t>Leptopilina</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>竹节虫属</t>
+          <t>细蜂属</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Caenorhabditis</t>
+          <t>Symsagittifera</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>秀丽隐杆线虫属</t>
+          <t>箭虫属</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Oppia</t>
+          <t>Diprion</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>奥甲螨属</t>
+          <t>松叶蜂属</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Bemisia</t>
+          <t>Culicoides</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>粉虱属</t>
+          <t>蠓属</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Asterias</t>
+          <t>Trichoplusia</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>海星属</t>
+          <t>粉纹夜蛾属</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Watersipora</t>
+          <t>Leptidea</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>水域泡状虫属</t>
+          <t>珍眼蝶属</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Brugia</t>
+          <t>Nilaparvata</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>布鲁线虫属</t>
+          <t>飞虱属</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Bombus</t>
+          <t>Zeugodacus</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>熊蜂属</t>
+          <t>果实蝇属</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ctenocephalides</t>
+          <t>Ceratitis</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>栉首蚤属</t>
+          <t>实蝇属</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>Myzus</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>瘤蚜属</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Frankliniella</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>花蓟马属</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Echinococcus</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>绦虫属</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Rhagoletis</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>果蝇属</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Caenorhabditis</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>秀丽隐杆线虫属</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oppia</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>奥甲螨属</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Bemisia</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>粉虱属</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Asterias</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>海星属</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Watersipora</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>水域泡状虫属</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Brugia</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>布鲁线虫属</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Ctenocephalides</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>栉首蚤属</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
           <t>Thrips</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>蓟马属</t>
         </is>
